--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/28_Edirne_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/28_Edirne_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82F96F8-943E-45DA-8170-1E8A07D2EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23DD6EC-065A-45D6-A104-DFC573685B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{2A949045-248B-4103-961F-207D1D0C333D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{8583AF4A-DF84-4FF8-B199-7B266FEC612C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -940,14 +940,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A74359EC-A11B-401A-939A-EFE53173F049}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{92BA3F0D-95E4-4B51-A9AF-8644DEBCA2E2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1AA4F9B5-FCF9-4825-8CD3-E1F3D921444A}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{625B01F3-6F6F-4EF8-8121-7F9E9F5D5642}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{765C229F-FE21-41BD-8757-304606D5B6FC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1AFBC7D4-1F19-474D-A265-35C45528DAD3}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{51CF2807-0862-415C-8D9D-36C52D0906FD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CDAC7B2F-BC0C-4A31-95F4-D2BEBFD34B80}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D528742D-CBD8-444B-A2F5-099D4AEE7949}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7EB8545D-F8CA-40F8-B502-AE19ECE3F3A4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{78D6CEC4-0B6B-4A14-8605-DD245322A45B}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{6265DCD0-F715-443B-8C24-43D1F7397122}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{AF9258E3-3F31-4B0A-954E-40E43A29D340}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{5E29E93F-EA62-496E-B9BF-20B46AC3D454}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{8BEB04C5-56B4-477E-AD8F-CF15BC1308CA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{05444E1E-4114-459C-9809-00BF757517B5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F64B223-4F56-4DE4-91A1-E9858C29853F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A14021-1B94-4287-A31D-393DAF259C48}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39F4A7A8-E945-4E0A-ACE0-CA00F76583DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B80BE641-77A7-4CDA-B9BA-A0A8628CE89A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{308A7D0A-29DB-4CF5-9151-D161A860887E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED931926-02A5-4ADE-858C-90D92A3FDE8D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{359B5701-7889-4ABE-97C3-F4F0DB7A27EB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C263CE7D-F5E4-4DAF-9CC5-9CCECB0D0683}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{108B8AA1-C8AC-40A6-BDEF-52335E62B937}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81768C8E-0E6F-49F3-9C23-22CADEEC165C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CF1EB11-527A-4DEC-B4A0-CD9FFFDD02F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5471FD7F-89C7-40E7-B3C9-C89F8B30BD19}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6BFA272-EDD9-4E1F-A37C-1A3681148B18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F92CDF5E-FA00-4D67-AF1D-BA61BE225301}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{589293CE-6B96-4DF0-A965-4B812049B59E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FD8EB7D-470C-46CA-945F-5F33848CD2DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{39EBE42F-39EB-4E92-900D-AE571A687AD1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A6D3A9CD-2BBB-4598-9A97-6B565EB4D593}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E319208B-C9B8-447A-9921-BD0B7FADE578}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{99A34E7A-388F-4DC6-8914-4ADEFAF4FF52}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDEC2967-3B3C-4F22-AE62-EB650890CDB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CDF574D-107F-492A-B924-C59814AAED34}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0A61377-66F6-45DD-8022-2692D251BBB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DC787DD-8E72-49B6-8AFD-2FDB7C79EA94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CD0F728-6D05-4FA2-96BE-F88174BFF895}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A5D7631-19D9-4A26-8CD9-F4CCE83A9D6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C87665-DE83-4233-9AED-2861A096291A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B587EE73-4AAB-4C1A-B40A-3904AF50AC29}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3854,18 +3854,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6F600BB-E814-4F23-8909-A4C3C849CC19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7EAEAC7-53E6-442E-928C-1C3C3EDDF8E1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0449079E-C106-416A-BE07-3B2C0EB01746}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF7BEB34-3FC0-441A-95CE-B2F3D77A4ECD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38A2362A-BA65-4E01-8B78-776358D3882F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17EF67FC-A119-420C-BC11-3A10F200049E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D2D1136-5292-42F8-8C40-F9ACD3877B6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{070B0CBE-E2C1-45B3-844D-F04E51402FB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA294C04-6FC2-40A1-BCD1-42EEC20E1F52}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0AF61A2-7AD8-40B1-93CA-CD33114B5CAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E903AA45-472D-45EF-A223-B254CE73A48E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5ED91D1F-BBB8-4CBB-8BEC-A10FB219790B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A84CE67A-89F3-49ED-837F-BF8A5FA31DDC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96580C70-B6EB-4FA0-8D17-A6AF45FF2A62}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{614DADCB-EE5A-4858-BBAC-4F84B9897052}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A40AC18B-C463-48B2-9348-C8CF512530BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{042BAF04-BB66-40FD-B9B8-7F9AFA3D4F9A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E5D195D-5E36-47AE-B838-EF21F251AF44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8B33D1E-71DA-4716-801D-2DB450870281}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DD2AB88-747C-4CCA-9288-8CAE4F25D178}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{546958F2-FFC5-4EFF-B09A-FDC10AABB76A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BDB859D-143F-4160-90EA-7B49F7DA05B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F88087DD-5171-4E7E-BEDD-A14E6154C9FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98111D7E-9148-4AE1-957B-86E3DF38FB52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976C9C8-0FAA-4827-A56D-35B2527DF81E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7EE081-12A3-4BD4-A5BD-8B67A3227F1B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5124,18 +5124,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C7A7BF4-2941-430E-8FBD-AAC53C0F3FC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E115150A-2EE7-4562-ADCC-477E83CC2406}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F4E1742-D46B-46DF-B010-7BCFDE9967B3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D62CAAF6-00AB-4D15-A57A-77370ABB2E5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3ACA189D-7C1E-4D31-8399-96C35EF0B44D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6C75170C-AA0A-4605-8785-7847236FCA61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78F4152F-A554-4752-A806-61B076593C73}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F322A763-0323-4A42-AEFF-BCFBA10A4FF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91705D97-23B9-4589-BA04-D49E041A3677}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F7D0A71-81C8-4C2B-85E0-E10A71D230D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A5E47DD-42F6-44C7-B503-EA96471FC894}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B36FC9E-5796-494F-8208-A297D64228B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{149461BB-CE1A-4C58-A05F-C406DD9A8C1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0A197AC-A0F1-4168-A3D0-14D891531F5A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{344C3F0F-B685-4B57-9EA6-6DC321A88D19}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD7F00B4-8672-4A23-ACD2-450107B85107}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9383198F-CB68-4C57-9777-F8CEDAFDBE25}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{472DAE55-ADF7-45FD-A6C4-592529C5A70B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E09DEA6-5575-4BF6-8290-7A1D4EEE8890}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F85E7281-6FE1-42BC-AFBA-D3FA18D33105}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E084E989-A121-4E04-873C-9EB8C9E9B934}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A314E8CF-D025-402B-8AC7-35B035736F8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B1C7199-1897-49DA-B090-E82BE9C2E82A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A101FDD-10B1-4CFA-887D-0D8157760A26}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5148,7 +5148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E307F8B5-65FD-467D-A952-56EC9F66049E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FF730-D40E-47A4-8E3C-C2A634DEBA16}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6388,18 +6388,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31EB1FB3-BD35-4A67-A979-2AD9A8CF929C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00FEC211-DCEF-45A6-AE65-B4AC412CA5CF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{176746FF-ED20-402E-8A39-E933BCAC7DFE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B25835A1-6051-4CE6-ADA8-ADDD63BFA233}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C06B55EA-0062-4D72-885A-441C46658036}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EE848496-EA22-497D-B933-80814607DCA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C089EC11-2E1A-4E5B-AE4F-963297531606}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66CF6674-C92A-49E8-9A31-235A63FE5E89}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E72DEF1-CC04-425E-AABD-97A35A865B65}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30F2658B-69C8-4D0B-B4E7-F1F1AA321AB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{793CDF83-DCCF-451A-93C8-7CCB46282760}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15D9A3C4-D34C-452F-A6BC-793C019772DD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09D9081B-3833-4182-93BA-A52414BB41E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD4D0993-14C1-4283-A875-73536408CC36}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CDC498E-8B0D-404C-A720-DFE278AA2CB6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{237122A9-690C-47F7-856C-76680DDED05A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE1E5E8F-7FDF-4ECA-9B43-3F3E6B74F705}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB023FA1-AD7C-4FAA-9473-5E6960FF71EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F5D18C0-375C-4285-9055-22B52B7EDF96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5E46519-DBA7-4EC4-B6EC-788D5405FB3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{769E2AB7-F287-4C3D-ADB8-945B8A3A4591}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F9295A1-6BF7-4757-91D4-6B7E16BAB266}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{360D71A1-CEE8-41AB-9677-839E2FEDF039}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3C18DA9-D0D6-405F-9845-97E33DB53659}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6412,7 +6412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29E2C-E69A-496B-86AB-19A4484F4BDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F9BF3F-AD26-40B5-8A74-4FA9B4747057}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7675,18 +7675,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3966FE39-AA79-47B1-9AF1-109EFB15FBF2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6DEBED4-2F32-4C9C-9A52-C4D7582AEE96}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{695EE0D2-83F5-45B5-B369-7CB5DC6DEF8E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{998C82BB-75BE-43B9-96FA-20E3490C5868}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{643A4C27-589D-41F8-BA4E-1390FA34451D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{78F06EC9-72D5-431B-A569-495599FB60F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8377BAE9-43F2-45E8-AC07-1033C5EC43C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{969F84C3-F6A4-4645-B885-66084F2706DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE7113A8-9375-449B-8997-019151323439}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27C1941E-CC9C-48F8-92DE-31FEDC9EC7B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7B63FEC-411E-409F-A16C-F90074B57357}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71BF2876-AD5C-4099-9860-D9BE9CFE6FFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF864342-AB57-460D-9C88-C5B7E996767B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F01BE25-2BC9-43DF-A247-2B31F3104BA7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99ABF612-EDD2-4CEF-96B8-12E872211145}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5BAD1C3-6564-4B95-BDEC-A1C0678BB1BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E1AA833-828A-4079-A1CE-EB71167908DB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{75DA5023-7AE7-42FC-BB75-49ADE5C93F64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CC76731-DCBC-4D1B-8B83-9B93531D9B1C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4725ABE6-E0E0-4779-A0AF-5DAB2F0BF83C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90D54A40-D1F1-4724-A40C-AF58FBC6FCE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CF01EDB-A19A-4144-8C22-4CC0CF27D0CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{282AB01C-F845-402A-B5A0-942A2A768185}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{545EE6C9-C7E0-4D97-A045-A37032A4DD64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7699,7 +7699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F512BF-CE27-40D7-96DA-D10BB43039FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FE4EB4-C39D-458F-AE1D-84130B291264}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8962,18 +8962,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{332B5404-A489-41E8-AE5F-EF536EE7E482}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DA6958D-E2FE-4DBD-BB48-52CD1AF50501}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A806466-9DC5-4B38-9510-85420045092C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{49B32293-2487-4E99-9FAD-1B7D9C401F42}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D28CC5A9-0CF6-40D6-BB3F-0020E12BA149}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{57101FE8-7635-4ACA-A902-0F7970E2E273}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02BADB12-BDD8-424F-9C35-3CBD6A1802D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F525BF6C-FEBB-4701-B424-31A9D0EE3FD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81717653-02E5-40A7-BA31-66D8F3B42BDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4322629-B805-489D-A2D3-5E4CAAF9BBD3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01913359-DF40-49BA-961F-9AB1D4D0CF97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D992099B-229E-4A4B-A1E7-AC53576975B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28A6B3CF-DC7D-4ED7-97E8-42C9BF87A103}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65EE3F9C-D666-4DC4-9C3B-FE5773C9C4DC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C23841BB-D77C-46B2-8C1D-C014298E915B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6E46BD28-08B3-4A5D-8F72-C0195BD64050}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2408F914-B27D-4F65-A331-4D92CD399F2D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0DB6B5CA-9627-4654-A85B-3518A9E687D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6410D0EB-3CA3-44E7-8614-A329423DC2FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2ACD0C26-FFF4-4DB7-BD58-4AED76136CC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADCF9481-9C13-4FA1-9FE5-160BD4DF3DB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08AACFF7-FA3F-435E-B8A7-7A3D2563F393}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCD01888-CE7E-414F-BC54-C5263740792B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92AAB3DE-6F1C-4C68-A783-772872D37DE1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8986,7 +8986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE6F6BA-2B9E-416B-B0DC-8B62B57799ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A8D79A-E8B7-4C37-B5B7-801FEF274FF6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10249,18 +10249,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2982A8C-F778-4C90-BCD4-E669A8D630D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8D498AE-947D-434B-97FA-0027BF2D9F9C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A51B91BA-F580-4F5B-B5E3-06AFF370A590}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1FBF7CD5-3581-4893-89D0-CC7484784963}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E4D2A3AD-6922-4449-8468-6E8311F847B2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B8FDB4A5-B07D-4787-945D-5BFC76FFBE3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF8D52D8-E92D-4306-B576-285BFFE4C069}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C512A52-A351-4C20-8BE2-DFF2ED8B23F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{675098C6-CD73-4003-B286-E401239A5D2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1EF60106-C7F8-475F-94C2-987FC1A4341D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BFDC488-68D4-4F3D-97EE-6CDE7E92F3BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73E9E422-B397-416F-B5B5-F182E702B227}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9D9155E-27C2-4008-B441-B60530418ABB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC9571CD-186D-4AF1-8C62-E27921C17235}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF579B20-2D8D-4152-9C95-21A2CEE14BD8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5EC76C22-7F71-4868-A715-E3041F9CE108}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E9C5CBB-22C5-4691-80B2-B581102AC90C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BD0ABBC-CF69-450C-A0E1-45F431B18830}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42C1D3B7-B3B7-4C11-AB94-DC9A516AC69D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CC72F21-5B59-4C2D-A289-B0715776AC4D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EB8B359-4EAE-44BA-B819-76932378A45B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30B07D4D-22C0-4668-9247-2378DD92419D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA91CC24-B357-441C-BCAC-F691066268D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{125DB020-ECAD-4223-B55F-2C6A56A37A5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10273,7 +10273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A0F636-FBFA-4B87-A840-432AF1C3E2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFD2279-B575-4C07-A9FE-B1B26D629235}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11532,18 +11532,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FA3B33D-2CFD-4A13-82A2-84C04AC34253}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9486FFEB-0500-49D5-BD89-B1FFA12F1E64}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AD16468-1428-49C6-B6BF-A60541480E8F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{571ABF5B-8460-4C35-934D-15849A4A12DD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23305725-CB51-4DB1-A21B-B0276412FCEA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4A477532-C49E-4FE8-A250-C89FC85A922E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7E0FB6F-058D-4148-B3FA-9917B2177462}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DBC3F0A-4D42-4EAB-B147-F3BDD055EA42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8343F634-3B62-4ECB-929E-6270EE9C742C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB4BADED-8B80-4A4A-AB08-AB606EF544F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3357321A-0FD6-48B6-A73E-E6F3990D8A49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02A6BCB4-3085-421E-8DFF-D8465884D2E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3541731-24B3-4A80-B73B-06D2DA40D516}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E60CCC7-C06E-44AC-8AAC-753D0FB85DCB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1427EC60-EBA7-40F9-AC1D-B87BC06F5A79}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BAE71576-DC46-4E0D-9050-26AC9B772BDB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C082CF5-786E-423F-A8CD-41A818657BDB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{661AF1A7-9357-4FE1-B670-43084CBBCE27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A14AB5C-7BE4-4EA4-8217-CB7CC4270F1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13272EAE-F8CC-4363-9049-C23F0BDAA210}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FD6B1C2-97C1-496D-8B04-42BFD7420C8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACA9FFF6-3EDA-47AF-8AEB-2EC079217144}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B040FF40-B187-4295-B13E-D789B7AC99E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BDBD15C-2C68-48BC-A874-6324BBE853F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11556,7 +11556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69352F7-15F0-4C99-B886-66F0EB7337FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC75665-59FC-4C9D-A3A6-015804154F56}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12815,18 +12815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED41743C-972D-4EA7-9064-D0C91FC1C91E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9D7C8E0-BAE7-48EA-88A9-85C49285CA23}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23997E41-C5AE-491A-A67E-F42DD508C16D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C5B5B21-A5E9-4478-A322-88D20F0A9EE8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3D9C4D9-6902-4676-88A0-6A9CCBB1A1EA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EE76973C-E6BC-4E46-B458-0B079559BC41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CFEBEA4-CE45-4B31-B2C9-99075BBCC8BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{351042A6-09A7-45A7-A057-C5505B597F3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F17ACEF4-4DC8-4D47-9606-CEB81141D802}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5300AA9C-A292-4CD3-A619-7BC987F162D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34CCF448-4DD0-42B2-BF91-0D0B7F9A884B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88452CC5-C1FF-4908-8871-5B7C4E77199F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAE38BB2-DE28-4C25-8952-6AA10730ECE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC996399-97DD-46A1-A0FB-78EF93BC4E2D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{887E5480-50A1-4F21-A53E-1A04111B0BB0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24152FBD-5F86-4F65-B607-8B0EBCD41BE9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25DEB470-FD30-4ECF-A6FF-CC10359F0143}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{914B5515-56E4-4C40-9AB4-94FD2DDE36D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6555533F-6DE7-4CF4-885C-554FD88E1094}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF35A272-2CC7-4F39-B52D-2528B94FE443}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20EBC1D2-BFBD-41AC-9798-62F5AD96083A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77D9AB2F-6054-4710-8178-5BDADA6C1A7A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2AD779B-71BA-44EF-8CB6-4CE3AEC46B83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4680755B-F00C-4B1E-AD06-E44F04386E59}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12839,7 +12839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909B902B-5B6B-43E6-B9FE-BA644A54DC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CE3A27-7A68-4DE0-985A-7976E06BC7E0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14094,18 +14094,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DE35B39-EB13-4BEF-87E3-30DFB0904C9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E046FED-FEBB-40A7-A4E1-7F10009BA6B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B9860F25-09AD-4E08-9E52-0AEB2F528921}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C0CDFDAF-55D2-4DC4-A695-C0F85B0B2D0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C268434-A814-4295-BB63-994744EC0733}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2FA38832-D363-4B3D-A162-218C9F5F6E7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31CBBC33-921C-4CC4-9FB3-E28E384C9844}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{234C907D-989B-409B-98CC-A463A985F7C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{737FEC68-9395-47C1-93A0-6B95F5D08875}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87B9CBFA-6DA9-4DEF-9819-CA380F4AB474}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59DD2822-10A1-4110-9A11-61F6F0770DBA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D85BB952-D5B7-4E73-9819-7728BCBDD6BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58532007-9CA8-4A14-9D72-5AF4EC7D5BAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7BE1606-BB4F-46B0-8EEF-FC4BAA74095A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E60CDCC-7521-4795-A2AA-2BF0C91D0B95}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5CEBF3AA-2028-4FC1-AF2D-C14C123C413F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73BE0742-B838-4169-8344-F1F76AC8D6F5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C824BBA-F2E0-4C89-BDD9-49797BE5AE1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CFAFFA5-2772-4D46-B240-E64A324F909B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9ACD7869-3D08-48CD-9156-121B8156FC5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7A282F0-6C1E-4E97-8C32-D14BE47F48C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{098F7E36-670F-44C6-873C-2657B4C97C75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DB1A574-18B9-477C-988D-B1C01294A95F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF663E0D-626B-44FA-94DF-73C7CD2DC14E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14118,7 +14118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5527A627-A6F6-4670-8DED-717F4FD32AB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50DEC39-DD64-41CC-9DA7-98F8EF812EC1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15373,18 +15373,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62B1B4EC-9507-4E2A-BB7F-BC8F4A2790BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B7682B8D-C51D-46E0-9D25-30B601021976}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EAE25F71-912E-42FC-ADE2-CAF431A7B62A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8F1388FF-887A-44DA-9A3E-1306D54CADE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B433C85-641B-4299-9CBA-3E4334074768}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D58A29B-AE0B-45B0-A675-24C8057CCE0D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A28DE980-3195-4CFC-BACA-8667267D2CD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{460A44FB-74FB-4196-B085-430BADF2AD81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E67A1A1F-8C03-491F-931B-13C288E7CCC1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98AF9762-1C21-4959-9797-F5ADD5C537F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{779C1EC6-EEB6-40A8-ADC6-B794FD955000}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{737FC3EC-1316-476A-B602-50C7D2F559F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91F252FB-B1C0-4AF2-8657-49693807F520}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71A6AA9F-F87E-456A-AD1A-29098149FBA0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70224757-6E81-4A8F-997D-2828D10C0CE1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{93CCA476-4806-487F-A2F4-4B00B90664BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64E9DB1E-DC87-49B8-8FC5-F7F8D3B9FE29}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{90C751B7-E154-442F-9BB8-A7CAA703DCD9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADBBA09E-57CE-4DF4-A858-5DAFD01F03FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6ABC6A19-8728-4D83-BAD2-70F5B5690756}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A9037CCD-D9E3-48E9-A856-0DA1DF8ED9F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64B7BB93-10FE-4E14-9BC3-2B4B8F33C2F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3E16A8F-0630-4862-BE28-44C733757CB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23A93AE1-6766-496D-9C72-E0515ACCA445}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15397,7 +15397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F831E89C-2774-497E-9180-A1FFDDA915F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60CEACF-35EF-4BA7-9513-EA2A8BE8DD67}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16648,18 +16648,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20B5A921-6CBF-4F22-A828-F5FC373F79AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BA62791-1834-404D-915C-3D4D61604BE6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0129C0DD-F517-4408-9081-34780EA52036}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AF23FBB8-5E35-4291-8ACB-2A3D891F9B0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF2C586F-00DC-48E3-AC90-38459CAE82F9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{54667881-5451-45F0-9D05-126D72AC6216}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B24CF1DD-B779-42F4-BD98-4C2E30FB6140}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68042BFB-88A7-47AB-9AF4-9EBC068C3ED0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25D5408A-6179-41FF-AE06-5CCCBBBB2170}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F8CFFF6-D01B-4CCE-B231-7143681CE9AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55509B74-B216-4204-A582-C4F16C2EED84}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAABF404-C722-40A2-81FC-2F1738DA175C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64772B12-7B9D-4C82-8F12-EB938DB96B34}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7509AEA4-D3AC-4814-8E21-13D4DD3189B1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67DCE7A0-5307-480F-9569-287AC3D72B0B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE468AE4-4992-4FDA-857B-C2ECFAFC5EF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01245D13-4D77-4A37-85B6-CA3058A4906A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6C79E16D-064F-436C-BED1-40EB5AA1EFCD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BCA40AC-13A8-4020-B666-B4453D4A22BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62D0F319-BE49-454D-9C7E-7C0F03BE4BE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72F25E7E-F053-4945-84C5-1D16EC781186}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E34996A8-1565-4052-B22C-ABF097D9CA83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{175708C4-6585-49F6-93BD-5CDAD94D114E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{926CD12E-DA6E-48FA-9678-388C2FF26C6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
